--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1648128.901624005</v>
+        <v>1645876.821912798</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>370.064896548361</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>42.76773080618923</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>96.50675189249597</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>196.9899243971809</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>374.1747265925671</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>61.4857815380881</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>122.7291074462369</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039676</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>378.4451907654905</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>344.3795638246817</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991755</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060509</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.799772605714452</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969026</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890389</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654825</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>19.91555826188944</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365921</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>42.53134576113585</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238297</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>84.53948348634543</v>
       </c>
       <c r="H31" t="n">
-        <v>33.8289189178753</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>14.90335196317894</v>
       </c>
       <c r="H37" t="n">
-        <v>53.30076123484837</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>16.93966244919647</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>223.829035290595</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.138951213863</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1661.138951213863</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052372</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609174</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136269</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520491</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794328</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450757</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180643</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189674</v>
+        <v>1698.509627919563</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213863</v>
+        <v>1308.370295943751</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8377936138381</v>
+        <v>1091.613680441808</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>922.6774975139007</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>772.5608581015649</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191718</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212614</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959804</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218349</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581906</v>
@@ -4504,34 +4504,34 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621301</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251695</v>
+        <v>1637.877378051533</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271522</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.8377936138381</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1979.067756754391</v>
+        <v>1992.201838557434</v>
       </c>
       <c r="C5" t="n">
-        <v>1610.10523981398</v>
+        <v>1623.239321617023</v>
       </c>
       <c r="D5" t="n">
-        <v>1610.10523981398</v>
+        <v>1264.973623010272</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>879.1853704120279</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>468.1994656224203</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794325</v>
+        <v>2382.341170533246</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.667596818513</v>
+        <v>1992.201838557434</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>629.1078027362229</v>
+        <v>994.2880032601529</v>
       </c>
       <c r="C7" t="n">
-        <v>460.171619808316</v>
+        <v>825.351820332246</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>675.2351809199102</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1803.325752688253</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1803.325752688253</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1514.222885813897</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.53839760801</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1259.53839760801</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1031.548846709993</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>810.7562675664626</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1908.990616856006</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473105</v>
+        <v>1550.724918249256</v>
       </c>
       <c r="E8" t="n">
-        <v>382.0732636872191</v>
+        <v>1164.936665651011</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>753.9507608614038</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,25 +5054,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400712</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>366.9636532421608</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>199.7675539570408</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,19 +5349,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K15" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
         <v>1520.445529061503</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400695</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121626</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121626</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121626</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121626</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270426</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138394</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703092</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,25 +5525,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876677</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597608</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D19" t="n">
-        <v>261.846482147425</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650319</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359455</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614375</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179074</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,13 +5765,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6139,52 +6139,52 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
         <v>974.1018203925706</v>
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,7 +6236,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,28 +6245,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518385</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541326</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885524</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6455,43 +6455,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.843151638089</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101821</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D31" t="n">
-        <v>422.7903292978464</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E31" t="n">
-        <v>274.8772357154533</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F31" t="n">
-        <v>127.9872882175429</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="G31" t="n">
-        <v>127.9872882175429</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611859</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683287</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="32">
@@ -6695,31 +6695,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,13 +6929,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6953,22 +6953,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>377.6556127449245</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E37" t="n">
-        <v>229.7425191625314</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F37" t="n">
-        <v>229.7425191625314</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7425191625314</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,7 +7181,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311994</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032925</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>482.6390612909568</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>334.7259677085636</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>334.7259677085636</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614391</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.728406165343709e-13</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>35.40333084624568</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610395</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405094</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>72.11969353038569</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>125.5054897610418</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>138.4949402405088</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>80.98465480592341</v>
       </c>
       <c r="H31" t="n">
-        <v>106.4657939283486</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="H37" t="n">
-        <v>86.99395161137548</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>148.5844758430724</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>62.3554390986491</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>912905.050290909</v>
+        <v>912905.0502909089</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.3630992038</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="15">
@@ -26317,40 +26317,40 @@
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985036</v>
       </c>
       <c r="H2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="J2" t="n">
-        <v>524645.2897985037</v>
-      </c>
       <c r="K2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="M2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="N2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.2897985036</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985037</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.1230581323</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813239</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26451,7 +26451,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613934</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-992745.6589353343</v>
+        <v>-992745.6589353346</v>
       </c>
       <c r="C6" t="n">
-        <v>335999.0867922588</v>
+        <v>335999.086792259</v>
       </c>
       <c r="D6" t="n">
-        <v>335999.0867922587</v>
+        <v>335999.0867922584</v>
       </c>
       <c r="E6" t="n">
-        <v>87553.20988046048</v>
+        <v>87518.47195502439</v>
       </c>
       <c r="F6" t="n">
-        <v>412965.6716878155</v>
+        <v>412930.93376238</v>
       </c>
       <c r="G6" t="n">
-        <v>412965.6716878155</v>
+        <v>412930.9337623799</v>
       </c>
       <c r="H6" t="n">
-        <v>412965.6716878155</v>
+        <v>412930.93376238</v>
       </c>
       <c r="I6" t="n">
-        <v>412965.6716878154</v>
+        <v>412930.93376238</v>
       </c>
       <c r="J6" t="n">
-        <v>195434.4692905379</v>
+        <v>195399.7313651021</v>
       </c>
       <c r="K6" t="n">
-        <v>412965.6716878155</v>
+        <v>412930.9337623799</v>
       </c>
       <c r="L6" t="n">
-        <v>412965.6716878155</v>
+        <v>412930.9337623799</v>
       </c>
       <c r="M6" t="n">
-        <v>327910.6437523034</v>
+        <v>327875.905826868</v>
       </c>
       <c r="N6" t="n">
-        <v>412965.6716878155</v>
+        <v>412930.9337623799</v>
       </c>
       <c r="O6" t="n">
-        <v>412965.6716878154</v>
+        <v>412930.9337623799</v>
       </c>
       <c r="P6" t="n">
-        <v>412965.6716878156</v>
+        <v>412930.9337623799</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022935</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26814,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>12.66894511511958</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>311.9153108144938</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>83.32522828944133</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.59472895491385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>7.755643479694697</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>349.4359441153654</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>67.03991788520501</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>239.1104512034312</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.485179306771272</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>66.54216182877173</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911067</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,7 +28065,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29490,7 +29490,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
@@ -31051,31 +31051,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
         <v>19.17787942451121</v>
@@ -31124,43 +31124,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,19 +31203,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883116</v>
@@ -31230,13 +31230,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31841,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,19 +32078,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>688.8020111197783</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701982</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>546.2057666753338</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
